--- a/氣象性能評估工具V2/data/obs/backup/2016-06-14_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-14_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-14 00:00:00</t>
+    <t>2016-06-14-00</t>
   </si>
   <si>
     <t>22.4</t>
@@ -160,7 +160,7 @@
     <t>27.2</t>
   </si>
   <si>
-    <t>2016-06-14 01:00:00</t>
+    <t>2016-06-14-01</t>
   </si>
   <si>
     <t>22.3</t>
@@ -211,7 +211,7 @@
     <t>29.7</t>
   </si>
   <si>
-    <t>2016-06-14 02:00:00</t>
+    <t>2016-06-14-02</t>
   </si>
   <si>
     <t>22.1</t>
@@ -241,7 +241,7 @@
     <t>23.7</t>
   </si>
   <si>
-    <t>2016-06-14 03:00:00</t>
+    <t>2016-06-14-03</t>
   </si>
   <si>
     <t>21.0</t>
@@ -277,7 +277,7 @@
     <t>28.7</t>
   </si>
   <si>
-    <t>2016-06-14 04:00:00</t>
+    <t>2016-06-14-04</t>
   </si>
   <si>
     <t>25.9</t>
@@ -298,7 +298,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-14 05:00:00</t>
+    <t>2016-06-14-05</t>
   </si>
   <si>
     <t>21.4</t>
@@ -310,7 +310,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-14 06:00:00</t>
+    <t>2016-06-14-06</t>
   </si>
   <si>
     <t>22.0</t>
@@ -334,7 +334,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-14 07:00:00</t>
+    <t>2016-06-14-07</t>
   </si>
   <si>
     <t>20.9</t>
@@ -358,7 +358,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-14 08:00:00</t>
+    <t>2016-06-14-08</t>
   </si>
   <si>
     <t>21.6</t>
@@ -376,7 +376,7 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>2016-06-14 09:00:00</t>
+    <t>2016-06-14-09</t>
   </si>
   <si>
     <t>23.0</t>
@@ -403,7 +403,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-14 10:00:00</t>
+    <t>2016-06-14-10</t>
   </si>
   <si>
     <t>14.8</t>
@@ -427,7 +427,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-14 11:00:00</t>
+    <t>2016-06-14-11</t>
   </si>
   <si>
     <t>26.5</t>
@@ -451,7 +451,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-14 12:00:00</t>
+    <t>2016-06-14-12</t>
   </si>
   <si>
     <t>25.8</t>
@@ -466,7 +466,7 @@
     <t>31.7</t>
   </si>
   <si>
-    <t>2016-06-14 13:00:00</t>
+    <t>2016-06-14-13</t>
   </si>
   <si>
     <t>20.8</t>
@@ -481,7 +481,7 @@
     <t>33.8</t>
   </si>
   <si>
-    <t>2016-06-14 14:00:00</t>
+    <t>2016-06-14-14</t>
   </si>
   <si>
     <t>14.5</t>
@@ -505,7 +505,7 @@
     <t>31.1</t>
   </si>
   <si>
-    <t>2016-06-14 15:00:00</t>
+    <t>2016-06-14-15</t>
   </si>
   <si>
     <t>26.4</t>
@@ -520,7 +520,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-14 16:00:00</t>
+    <t>2016-06-14-16</t>
   </si>
   <si>
     <t>22.5</t>
@@ -532,7 +532,7 @@
     <t>32.8</t>
   </si>
   <si>
-    <t>2016-06-14 17:00:00</t>
+    <t>2016-06-14-17</t>
   </si>
   <si>
     <t>21.2</t>
@@ -541,7 +541,7 @@
     <t>13.3</t>
   </si>
   <si>
-    <t>2016-06-14 18:00:00</t>
+    <t>2016-06-14-18</t>
   </si>
   <si>
     <t>12.9</t>
@@ -550,7 +550,7 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>2016-06-14 19:00:00</t>
+    <t>2016-06-14-19</t>
   </si>
   <si>
     <t>23.1</t>
@@ -559,7 +559,7 @@
     <t>20.6</t>
   </si>
   <si>
-    <t>2016-06-14 20:00:00</t>
+    <t>2016-06-14-20</t>
   </si>
   <si>
     <t>23.3</t>
@@ -568,13 +568,13 @@
     <t>13.1</t>
   </si>
   <si>
-    <t>2016-06-14 21:00:00</t>
+    <t>2016-06-14-21</t>
   </si>
   <si>
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-14 22:00:00</t>
+    <t>2016-06-14-22</t>
   </si>
   <si>
     <t>24.2</t>
@@ -583,7 +583,7 @@
     <t>22.6</t>
   </si>
   <si>
-    <t>2016-06-14 23:00:00</t>
+    <t>2016-06-14-23</t>
   </si>
   <si>
     <t>23.8</t>
